--- a/practica01/practica01ejercicio02/practica01ejercicio02.xlsx
+++ b/practica01/practica01ejercicio02/practica01ejercicio02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\STR\BarrientosAntequeraSTR2024\practica01\practica01ejercicio02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED82316-8F41-420E-BAFF-D62D6A8F9B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F161CAB-D56F-4014-B0E2-16EBCD03091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>k</t>
   </si>
@@ -54,7 +54,52 @@
     <t>SD1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.00000E+00</t>
+    <t>ST1_E1</t>
+  </si>
+  <si>
+    <t>ST2_E1</t>
+  </si>
+  <si>
+    <t>ST3_E1</t>
+  </si>
+  <si>
+    <t>ST4_E1</t>
+  </si>
+  <si>
+    <t>SC1_E1</t>
+  </si>
+  <si>
+    <t>SC2_E1</t>
+  </si>
+  <si>
+    <t>SR1_E1</t>
+  </si>
+  <si>
+    <t>SD1_E1</t>
+  </si>
+  <si>
+    <t>ST1_E2</t>
+  </si>
+  <si>
+    <t>ST2_E2</t>
+  </si>
+  <si>
+    <t>ST3_E2</t>
+  </si>
+  <si>
+    <t>ST4_E2</t>
+  </si>
+  <si>
+    <t>SC1_E2</t>
+  </si>
+  <si>
+    <t>SC2_E2</t>
+  </si>
+  <si>
+    <t>SR1_E2</t>
+  </si>
+  <si>
+    <t>SD1_E2</t>
   </si>
 </sst>
 </file>
@@ -105,10 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,49 +899,49 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>1007070</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2989980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2906700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2549810</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2073950</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>1897620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2133430</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2252400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2073950</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2255570</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>1776540</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>2073950</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.39119E-20</c:v>
+                  <c:v>1479130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,52 +1037,52 @@
             <c:numRef>
               <c:f>Hoja1!$G$2:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50059100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>49346800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>49970000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>50148100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>49970000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>48634500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>49079700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>49524900</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>50415200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,7 +1575,3509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Temperaturas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST1_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AE$2:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6148410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7215860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8228590</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9212850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10008700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10510600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10659900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10681000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10857900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11101600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11209200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11430300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11316400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11408800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11098200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST2_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AF$2:$AF$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7148410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8215860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9228590</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10212800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11008700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11510600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11659900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11681000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11857900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12101600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12209200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12430300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12316400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12408800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12098200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST3_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AG$2:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2060000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2050000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST4_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AH$2:$AH$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST1_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AM$2:$AM$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST2_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AN$2:$AN$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST3_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AO$2:$AO$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2060000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2050000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ST4_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AP$2:$AP$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E854-4DE6-87DB-CDE595058F19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="568970495"/>
+        <c:axId val="568960895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="568970495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568960895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568960895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568970495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa Caudales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SC1_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AI$2:$AI$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D7B-4369-909D-3A724ADF96AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SC2_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AJ$2:$AJ$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D7B-4369-909D-3A724ADF96AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AQ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SC1_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AQ$2:$AQ$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1007070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2989980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2906700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2549810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2073950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1897620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2133430</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2252400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2073950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2255570</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1776540</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2073950</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1479130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D7B-4369-909D-3A724ADF96AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AR$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SC2_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AR$2:$AR$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50059100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49346800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49970000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50148100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49970000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48634500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49079700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49524900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50415200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D7B-4369-909D-3A724ADF96AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="521520527"/>
+        <c:axId val="521517647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="521520527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521517647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521517647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521520527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa Radiación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SR1_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AK$2:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>60400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60900000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1797-46CE-BF82-0558606570AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AS$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SR1_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AS$2:$AS$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>60400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60900000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1797-46CE-BF82-0558606570AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="567208591"/>
+        <c:axId val="567212911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="567208591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567212911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="567212911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567208591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Destilado</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD1_E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AL$2:$AL$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24621600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29636200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34363400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38801600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43124400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46595600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48824200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49479700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49538500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50349500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51395600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51941100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52887700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52363300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52720500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FB0-43E0-89A1-F4FCDECDED1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD1_E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$AT$2:$AT$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>46905300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38115900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37611200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38052800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38178900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38052800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37106600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37422000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37737400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38368200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FB0-43E0-89A1-F4FCDECDED1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560380735"/>
+        <c:axId val="560386975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560380735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560386975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560386975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560380735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2084,6 +5633,2044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2117,6 +7704,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC96D62-7B05-4710-BE8F-4A0B7EE81A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A948C896-4A40-C22F-5DB2-893FF320F8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C48E455-81A5-4DC6-0B82-8507D42182F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AA0777-554F-FA52-77FD-968D2DE460D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2388,10 +8119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,467 +8130,1283 @@
     <col min="1" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>7200000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>8200000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>2000000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2000000</v>
       </c>
-      <c r="F2" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4">
+        <v>1007070</v>
+      </c>
+      <c r="G2" s="4">
+        <v>60000000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>60400000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>46905300</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>6148410</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>7148410</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>60400000</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>24621600</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>1007070</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>60400000</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>46905300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2060000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2989980</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50059100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>60400000</v>
+      </c>
+      <c r="I3" s="4">
+        <v>38115900</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>7215860</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>8215860</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>2060000</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>60400000</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>29636200</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>2060000</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2989980</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>50059100</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>60400000</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>38115900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1980000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2010000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>49346800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>60900000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>37611200</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>8228590</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>9228590</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1980000</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>60900000</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>34363400</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1980000</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>49346800</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>60900000</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>37611200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H5" s="4">
+        <v>62000000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>37737400</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>9212850</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>10212800</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>62000000</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>38801600</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>62000000</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>37737400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2906700</v>
+      </c>
+      <c r="G6" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H6" s="4">
+        <v>59000000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>37737400</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>10008700</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>11008700</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>59000000</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>43124400</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>2906700</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>59000000</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>37737400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2050000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2549810</v>
+      </c>
+      <c r="G7" s="4">
+        <v>49970000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>53000000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>38052800</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>10510600</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>11510600</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>53000000</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>46595600</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>2549810</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>49970000</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>53000000</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>38052800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2073950</v>
+      </c>
+      <c r="G8" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45000000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>37737400</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>10659900</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>11659900</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>48824200</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>2073950</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>37737400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2020000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1897620</v>
+      </c>
+      <c r="G9" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H9" s="4">
+        <v>42000000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>37737400</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>10681000</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>11681000</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>2020000</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>42000000</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>49479700</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>2020000</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>1897620</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>42000000</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>37737400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="H2" s="2">
-        <v>60400000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>46905300</v>
+      <c r="B10" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2070000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2133430</v>
+      </c>
+      <c r="G10" s="4">
+        <v>50148100</v>
+      </c>
+      <c r="H10" s="4">
+        <v>46000000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>38178900</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>10857900</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>11857900</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>2070000</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>46000000</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>49538500</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>2070000</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>2133430</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>50148100</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>46000000</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>38178900</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
         <v>7200000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C11" s="4">
         <v>8200000</v>
       </c>
-      <c r="D3" s="2">
-        <v>2060000</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D11" s="4">
         <v>2000000</v>
       </c>
-      <c r="F3" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2">
-        <v>60400000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>38115900</v>
+      <c r="E11" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2252400</v>
+      </c>
+      <c r="G11" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H11" s="4">
+        <v>48000000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>37737400</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>11101600</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>12101600</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>50349500</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>2252400</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>37737400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
         <v>7200000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C12" s="4">
         <v>8200000</v>
       </c>
-      <c r="D4" s="2">
-        <v>1980000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2010000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>60900000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>37611200</v>
+      <c r="D12" s="4">
+        <v>2050000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2073950</v>
+      </c>
+      <c r="G12" s="4">
+        <v>49970000</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45000000</v>
+      </c>
+      <c r="I12" s="4">
+        <v>38052800</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>11209200</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>12209200</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>51395600</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>2073950</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>49970000</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>38052800</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
         <v>7200000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C13" s="4">
         <v>8200000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D13" s="4">
+        <v>1900000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2030000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2255570</v>
+      </c>
+      <c r="G13" s="4">
+        <v>48634500</v>
+      </c>
+      <c r="H13" s="4">
+        <v>48000000</v>
+      </c>
+      <c r="I13" s="4">
+        <v>37106600</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>11430300</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>12430300</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1900000</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>51941100</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1900000</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>2255570</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>48634500</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>37106600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1950000</v>
+      </c>
+      <c r="E14" s="4">
         <v>2000000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F14" s="4">
+        <v>1776540</v>
+      </c>
+      <c r="G14" s="4">
+        <v>49079700</v>
+      </c>
+      <c r="H14" s="4">
+        <v>40000000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>37422000</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>11316400</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>12316400</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>1950000</v>
+      </c>
+      <c r="AH14" s="2">
         <v>2000000</v>
       </c>
-      <c r="F5" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>62000000</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="AI14" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>52887700</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1950000</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>1776540</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>49079700</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>37422000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8200000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2073950</v>
+      </c>
+      <c r="G15" s="4">
+        <v>49524900</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45000000</v>
+      </c>
+      <c r="I15" s="4">
         <v>37737400</v>
       </c>
+      <c r="AD15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>11408800</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>12408800</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>52363300</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>2073950</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>49524900</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>37737400</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
         <v>7200000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C16" s="4">
         <v>8200000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D16" s="4">
+        <v>2100000</v>
+      </c>
+      <c r="E16" s="4">
         <v>2000000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F16" s="4">
+        <v>1479130</v>
+      </c>
+      <c r="G16" s="4">
+        <v>50415200</v>
+      </c>
+      <c r="H16" s="4">
+        <v>35000000</v>
+      </c>
+      <c r="I16" s="4">
+        <v>38368200</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>11098200</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>12098200</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="AH16" s="2">
         <v>2000000</v>
       </c>
-      <c r="F6" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
-        <v>59000000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>37737400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="AI16" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>35000000</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>52720500</v>
+      </c>
+      <c r="AM16" s="2">
         <v>7200000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="AN16" s="2">
         <v>8200000</v>
       </c>
-      <c r="D7" s="2">
-        <v>2050000</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="AO16" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="AP16" s="2">
         <v>2000000</v>
       </c>
-      <c r="F7" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>53000000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>38052800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45000000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>37737400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2020000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2">
-        <v>42000000</v>
-      </c>
-      <c r="I9" s="2">
-        <v>37737400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2070000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
-        <v>46000000</v>
-      </c>
-      <c r="I10" s="2">
-        <v>38178900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2">
-        <v>48000000</v>
-      </c>
-      <c r="I11" s="2">
-        <v>37737400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2050000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45000000</v>
-      </c>
-      <c r="I12" s="2">
-        <v>38052800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1900000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2030000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2">
-        <v>48000000</v>
-      </c>
-      <c r="I13" s="2">
-        <v>37106600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1950000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="I14" s="2">
-        <v>37422000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45000000</v>
-      </c>
-      <c r="I15" s="2">
-        <v>37737400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7200000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2100000</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-3.39119E-20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="AQ16" s="2">
+        <v>1479130</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>50415200</v>
+      </c>
+      <c r="AS16" s="2">
         <v>35000000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="AT16" s="2">
         <v>38368200</v>
       </c>
     </row>

--- a/practica01/practica01ejercicio02/practica01ejercicio02.xlsx
+++ b/practica01/practica01ejercicio02/practica01ejercicio02.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\STR\BarrientosAntequeraSTR2024\practica01\practica01ejercicio02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F161CAB-D56F-4014-B0E2-16EBCD03091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE9767C-93E2-48B7-B429-92F8445E4A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AD$47</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -150,12 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>Hoja1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,7 +277,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -330,7 +331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$16</c:f>
+              <c:f>Hoja1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -394,7 +395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>Hoja1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,7 +418,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -471,7 +472,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$16</c:f>
+              <c:f>Hoja1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -535,7 +536,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$1</c:f>
+              <c:f>Hoja1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -558,7 +559,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -612,7 +613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$16</c:f>
+              <c:f>Hoja1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -676,7 +677,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$1</c:f>
+              <c:f>Hoja1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -699,7 +700,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -753,7 +754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$16</c:f>
+              <c:f>Hoja1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -817,7 +818,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
+              <c:f>Hoja1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -894,7 +895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$2:$F$16</c:f>
+              <c:f>Hoja1!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -958,7 +959,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$1</c:f>
+              <c:f>Hoja1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -981,7 +982,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1035,7 +1036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$2:$G$16</c:f>
+              <c:f>Hoja1!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1099,7 +1100,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$1</c:f>
+              <c:f>Hoja1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1124,7 +1125,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1178,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$2:$H$16</c:f>
+              <c:f>Hoja1!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1242,7 +1243,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$1</c:f>
+              <c:f>Hoja1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1267,7 +1268,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$16</c:f>
+              <c:f>Hoja1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1321,7 +1322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$2:$I$16</c:f>
+              <c:f>Hoja1!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1660,7 +1661,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AE$1</c:f>
+              <c:f>Hoja1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1683,7 +1684,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1737,7 +1738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AE$2:$AE$16</c:f>
+              <c:f>Hoja1!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1801,7 +1802,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AF$1</c:f>
+              <c:f>Hoja1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1824,7 +1825,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1878,7 +1879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AF$2:$AF$16</c:f>
+              <c:f>Hoja1!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1942,7 +1943,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AG$1</c:f>
+              <c:f>Hoja1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1965,7 +1966,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2019,7 +2020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AG$2:$AG$16</c:f>
+              <c:f>Hoja1!$P$2:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2083,7 +2084,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AH$1</c:f>
+              <c:f>Hoja1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2106,7 +2107,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2160,7 +2161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AH$2:$AH$16</c:f>
+              <c:f>Hoja1!$Q$2:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2224,7 +2225,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AM$1</c:f>
+              <c:f>Hoja1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2247,7 +2248,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2301,7 +2302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AM$2:$AM$16</c:f>
+              <c:f>Hoja1!$V$2:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2365,7 +2366,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AN$1</c:f>
+              <c:f>Hoja1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2388,7 +2389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2442,7 +2443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AN$2:$AN$16</c:f>
+              <c:f>Hoja1!$W$2:$W$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2506,7 +2507,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AO$1</c:f>
+              <c:f>Hoja1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2531,7 +2532,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2585,7 +2586,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AO$2:$AO$16</c:f>
+              <c:f>Hoja1!$X$2:$X$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2649,7 +2650,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AP$1</c:f>
+              <c:f>Hoja1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2674,7 +2675,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2728,7 +2729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AP$2:$AP$16</c:f>
+              <c:f>Hoja1!$Y$2:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3062,7 +3063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AI$1</c:f>
+              <c:f>Hoja1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3085,7 +3086,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3139,7 +3140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AI$2:$AI$16</c:f>
+              <c:f>Hoja1!$R$2:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3203,7 +3204,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AJ$1</c:f>
+              <c:f>Hoja1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3226,7 +3227,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3280,7 +3281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AJ$2:$AJ$16</c:f>
+              <c:f>Hoja1!$S$2:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3344,7 +3345,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AQ$1</c:f>
+              <c:f>Hoja1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3367,7 +3368,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3421,7 +3422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AQ$2:$AQ$16</c:f>
+              <c:f>Hoja1!$Z$2:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3485,7 +3486,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AR$1</c:f>
+              <c:f>Hoja1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3508,7 +3509,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3562,7 +3563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AR$2:$AR$16</c:f>
+              <c:f>Hoja1!$AA$2:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3897,7 +3898,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AK$1</c:f>
+              <c:f>Hoja1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3918,7 +3919,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3972,7 +3973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AK$2:$AK$16</c:f>
+              <c:f>Hoja1!$T$2:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4035,7 +4036,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AS$1</c:f>
+              <c:f>Hoja1!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4056,7 +4057,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4110,7 +4111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AS$2:$AS$16</c:f>
+              <c:f>Hoja1!$AB$2:$AB$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4450,7 +4451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AL$1</c:f>
+              <c:f>Hoja1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4471,7 +4472,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4525,7 +4526,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AL$2:$AL$16</c:f>
+              <c:f>Hoja1!$U$2:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4588,7 +4589,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AT$1</c:f>
+              <c:f>Hoja1!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4609,7 +4610,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$AD$2:$AD$16</c:f>
+              <c:f>Hoja1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4663,7 +4664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AT$2:$AT$16</c:f>
+              <c:f>Hoja1!$AC$2:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7675,16 +7676,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7711,16 +7712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230672</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91311</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>3320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7747,16 +7748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>157247</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>461197</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>3320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7783,16 +7784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173953</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>92253</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7819,16 +7820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>197028</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>545803</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8119,1299 +8120,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT16"/>
+  <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="12.7109375" customWidth="1"/>
+    <col min="17" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="2">
         <v>7200000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="2">
         <v>8200000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="2">
         <v>2000000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="2">
         <v>2000000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="2">
         <v>1007070</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="2">
         <v>60000000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="2">
         <v>60400000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="2">
         <v>46905300</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="N2" s="2">
         <v>6148410</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="O2" s="2">
         <v>7148410</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="P2" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="Q2" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="R2" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="S2" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="T2" s="2">
         <v>60400000</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="U2" s="2">
         <v>24621600</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="V2" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="W2" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="X2" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="Y2" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="Z2" s="2">
         <v>1007070</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AA2" s="2">
         <v>60000000</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AB2" s="2">
         <v>60400000</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AC2" s="2">
         <v>46905300</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="2">
         <v>7200000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="2">
         <v>8200000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="2">
         <v>2060000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="2">
         <v>2000000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="2">
         <v>2989980</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="2">
         <v>50059100</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="2">
         <v>60400000</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="2">
         <v>38115900</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="N3" s="2">
         <v>7215860</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="O3" s="2">
         <v>8215860</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="P3" s="2">
         <v>2060000</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="Q3" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="R3" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="S3" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="T3" s="2">
         <v>60400000</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="U3" s="2">
         <v>29636200</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="V3" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="W3" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="X3" s="2">
         <v>2060000</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="Y3" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="Z3" s="2">
         <v>2989980</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AA3" s="2">
         <v>50059100</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AB3" s="2">
         <v>60400000</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AC3" s="2">
         <v>38115900</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="2">
         <v>7200000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="2">
         <v>8200000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="2">
         <v>1980000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="2">
         <v>2010000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="2">
         <v>3000000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="2">
         <v>49346800</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="2">
         <v>60900000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="2">
         <v>37611200</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="N4" s="2">
         <v>8228590</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="O4" s="2">
         <v>9228590</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="P4" s="2">
         <v>1980000</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="Q4" s="2">
         <v>2010000</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="R4" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="S4" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="T4" s="2">
         <v>60900000</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="U4" s="2">
         <v>34363400</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="V4" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="W4" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="X4" s="2">
         <v>1980000</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="Y4" s="2">
         <v>2010000</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="Z4" s="2">
         <v>3000000</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AA4" s="2">
         <v>49346800</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AB4" s="2">
         <v>60900000</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AC4" s="2">
         <v>37611200</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="2">
         <v>7200000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="2">
         <v>8200000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="2">
         <v>2000000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="2">
         <v>2000000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="2">
         <v>3000000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="2">
         <v>49524900</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="2">
         <v>62000000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="N5" s="2">
         <v>9212850</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="O5" s="2">
         <v>10212800</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="P5" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="Q5" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="R5" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="S5" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="T5" s="2">
         <v>62000000</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="U5" s="2">
         <v>38801600</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="V5" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="W5" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="X5" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="Y5" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="Z5" s="2">
         <v>3000000</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AA5" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AB5" s="2">
         <v>62000000</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AC5" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="2">
         <v>7200000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="2">
         <v>8200000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="2">
         <v>2000000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="2">
         <v>2000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="2">
         <v>2906700</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="2">
         <v>49524900</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="2">
         <v>59000000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="N6" s="2">
         <v>10008700</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="O6" s="2">
         <v>11008700</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="P6" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="Q6" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="R6" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="S6" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="T6" s="2">
         <v>59000000</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="U6" s="2">
         <v>43124400</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="V6" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="W6" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="X6" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="Y6" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="Z6" s="2">
         <v>2906700</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AA6" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AB6" s="2">
         <v>59000000</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AC6" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="2">
         <v>7200000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="2">
         <v>8200000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="2">
         <v>2050000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="2">
         <v>2000000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="2">
         <v>2549810</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="2">
         <v>49970000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="2">
         <v>53000000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="2">
         <v>38052800</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="N7" s="2">
         <v>10510600</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="O7" s="2">
         <v>11510600</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="P7" s="2">
         <v>2050000</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="Q7" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="R7" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="S7" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="T7" s="2">
         <v>53000000</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="U7" s="2">
         <v>46595600</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="V7" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="W7" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="X7" s="2">
         <v>2050000</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="Y7" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="Z7" s="2">
         <v>2549810</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AA7" s="2">
         <v>49970000</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AB7" s="2">
         <v>53000000</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AC7" s="2">
         <v>38052800</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="2">
         <v>7200000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="2">
         <v>8200000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="2">
         <v>2000000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="2">
         <v>2000000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="2">
         <v>2073950</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="2">
         <v>49524900</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="2">
         <v>45000000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="N8" s="2">
         <v>10659900</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="O8" s="2">
         <v>11659900</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="P8" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="Q8" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="R8" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="S8" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="T8" s="2">
         <v>45000000</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="U8" s="2">
         <v>48824200</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="V8" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="W8" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="X8" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="Y8" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="Z8" s="2">
         <v>2073950</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AA8" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AB8" s="2">
         <v>45000000</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AC8" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="2">
         <v>7200000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="2">
         <v>8200000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="2">
         <v>2000000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="2">
         <v>2020000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="2">
         <v>1897620</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="2">
         <v>49524900</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="2">
         <v>42000000</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="M9" s="1">
         <v>8</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="N9" s="2">
         <v>10681000</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="O9" s="2">
         <v>11681000</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="P9" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="Q9" s="2">
         <v>2020000</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="R9" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="S9" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="T9" s="2">
         <v>42000000</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="U9" s="2">
         <v>49479700</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="V9" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="W9" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="X9" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="Y9" s="2">
         <v>2020000</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="Z9" s="2">
         <v>1897620</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AA9" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AB9" s="2">
         <v>42000000</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AC9" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="2">
         <v>7200000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="2">
         <v>8200000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="2">
         <v>2070000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="2">
         <v>2000000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="2">
         <v>2133430</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="2">
         <v>50148100</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="2">
         <v>46000000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="2">
         <v>38178900</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="N10" s="2">
         <v>10857900</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="O10" s="2">
         <v>11857900</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="P10" s="2">
         <v>2070000</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="Q10" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="R10" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="S10" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="T10" s="2">
         <v>46000000</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="U10" s="2">
         <v>49538500</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="V10" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="W10" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="X10" s="2">
         <v>2070000</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="Y10" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="Z10" s="2">
         <v>2133430</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AA10" s="2">
         <v>50148100</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AB10" s="2">
         <v>46000000</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AC10" s="2">
         <v>38178900</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="2">
         <v>7200000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="2">
         <v>8200000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="2">
         <v>2000000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="2">
         <v>2000000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="2">
         <v>2252400</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="2">
         <v>49524900</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="2">
         <v>48000000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="N11" s="2">
         <v>11101600</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="O11" s="2">
         <v>12101600</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="P11" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="Q11" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="R11" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="S11" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="T11" s="2">
         <v>48000000</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="U11" s="2">
         <v>50349500</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="V11" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="W11" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="X11" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="Y11" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="Z11" s="2">
         <v>2252400</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AA11" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AB11" s="2">
         <v>48000000</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AC11" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="2">
         <v>7200000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="2">
         <v>8200000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="2">
         <v>2050000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="2">
         <v>2000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="2">
         <v>2073950</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="2">
         <v>49970000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="2">
         <v>45000000</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="2">
         <v>38052800</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="M12" s="1">
         <v>11</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="N12" s="2">
         <v>11209200</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="O12" s="2">
         <v>12209200</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="P12" s="2">
         <v>2050000</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="Q12" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="R12" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="S12" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="T12" s="2">
         <v>45000000</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="U12" s="2">
         <v>51395600</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="V12" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="W12" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="X12" s="2">
         <v>2050000</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="Y12" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="Z12" s="2">
         <v>2073950</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AA12" s="2">
         <v>49970000</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AB12" s="2">
         <v>45000000</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AC12" s="2">
         <v>38052800</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="2">
         <v>7200000</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="2">
         <v>8200000</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="2">
         <v>1900000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="2">
         <v>2030000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="2">
         <v>2255570</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="2">
         <v>48634500</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="2">
         <v>48000000</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="2">
         <v>37106600</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="M13" s="1">
         <v>12</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="N13" s="2">
         <v>11430300</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="O13" s="2">
         <v>12430300</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="P13" s="2">
         <v>1900000</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="Q13" s="2">
         <v>2030000</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="R13" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="S13" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="T13" s="2">
         <v>48000000</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="U13" s="2">
         <v>51941100</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="V13" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="W13" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="X13" s="2">
         <v>1900000</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="Y13" s="2">
         <v>2030000</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="Z13" s="2">
         <v>2255570</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AA13" s="2">
         <v>48634500</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AB13" s="2">
         <v>48000000</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AC13" s="2">
         <v>37106600</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="2">
         <v>7200000</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="2">
         <v>8200000</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="2">
         <v>1950000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="2">
         <v>2000000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="2">
         <v>1776540</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="2">
         <v>49079700</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="2">
         <v>40000000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="2">
         <v>37422000</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="M14" s="1">
         <v>13</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="N14" s="2">
         <v>11316400</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="O14" s="2">
         <v>12316400</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="P14" s="2">
         <v>1950000</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="Q14" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="R14" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="S14" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="T14" s="2">
         <v>40000000</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="U14" s="2">
         <v>52887700</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="V14" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="W14" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="X14" s="2">
         <v>1950000</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="Y14" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="Z14" s="2">
         <v>1776540</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AA14" s="2">
         <v>49079700</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AB14" s="2">
         <v>40000000</v>
       </c>
-      <c r="AT14" s="2">
+      <c r="AC14" s="2">
         <v>37422000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="2">
         <v>7200000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="2">
         <v>8200000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="2">
         <v>2000000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="2">
         <v>2000000</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="2">
         <v>2073950</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="2">
         <v>49524900</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="2">
         <v>45000000</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="2">
         <v>37737400</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="M15" s="1">
         <v>14</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="N15" s="2">
         <v>11408800</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="O15" s="2">
         <v>12408800</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="P15" s="2">
         <v>2000000</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="Q15" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="R15" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="S15" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="T15" s="2">
         <v>45000000</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="U15" s="2">
         <v>52363300</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="V15" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="W15" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="X15" s="2">
         <v>2000000</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="Y15" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="Z15" s="2">
         <v>2073950</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AA15" s="2">
         <v>49524900</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AB15" s="2">
         <v>45000000</v>
       </c>
-      <c r="AT15" s="2">
+      <c r="AC15" s="2">
         <v>37737400</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="2">
         <v>7200000</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="2">
         <v>8200000</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="2">
         <v>2100000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="2">
         <v>2000000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="2">
         <v>1479130</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="2">
         <v>50415200</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="2">
         <v>35000000</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="2">
         <v>38368200</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="M16" s="1">
         <v>15</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="N16" s="2">
         <v>11098200</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="O16" s="2">
         <v>12098200</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="P16" s="2">
         <v>2100000</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="Q16" s="2">
         <v>2000000</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="R16" s="2">
         <v>1500000</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="S16" s="2">
         <v>45000000</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="T16" s="2">
         <v>35000000</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="U16" s="2">
         <v>52720500</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="V16" s="2">
         <v>7200000</v>
       </c>
-      <c r="AN16" s="2">
+      <c r="W16" s="2">
         <v>8200000</v>
       </c>
-      <c r="AO16" s="2">
+      <c r="X16" s="2">
         <v>2100000</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="Y16" s="2">
         <v>2000000</v>
       </c>
-      <c r="AQ16" s="2">
+      <c r="Z16" s="2">
         <v>1479130</v>
       </c>
-      <c r="AR16" s="2">
+      <c r="AA16" s="2">
         <v>50415200</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AB16" s="2">
         <v>35000000</v>
       </c>
-      <c r="AT16" s="2">
+      <c r="AC16" s="2">
         <v>38368200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="46" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>